--- a/Documentation/Burn Down Chart_ADJ Banking_Updated.xlsx
+++ b/Documentation/Burn Down Chart_ADJ Banking_Updated.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Task</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Error Checking</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>client</t>
   </si>
 </sst>
 </file>
@@ -675,8 +681,8 @@
   <colors>
     <mruColors>
       <color rgb="FF4B91D1"/>
+      <color rgb="FF9D9D9D"/>
       <color rgb="FF3886CC"/>
-      <color rgb="FF9D9D9D"/>
       <color rgb="FF3399FF"/>
     </mruColors>
   </colors>
@@ -833,10 +839,10 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1995,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2072,19 +2078,19 @@
         <v>5</v>
       </c>
       <c r="D5" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
       </c>
       <c r="F5" s="27">
-        <f>I5</f>
-        <v>0</v>
+        <f t="shared" ref="F5:F10" si="0">I5</f>
+        <v>1</v>
       </c>
       <c r="G5" s="29"/>
       <c r="I5" s="37">
-        <f>C5-(SUM(D5:E5))</f>
-        <v>0</v>
+        <f t="shared" ref="I5:I10" si="1">C5-(SUM(D5:E5))</f>
+        <v>1</v>
       </c>
       <c r="J5" s="37">
         <f>SUM(E5:E9)</f>
@@ -2108,12 +2114,12 @@
         <v>4</v>
       </c>
       <c r="F6" s="27">
-        <f>I6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="29"/>
       <c r="I6" s="37">
-        <f>C6-(SUM(D6:E6))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6" s="37"/>
@@ -2135,12 +2141,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="27">
-        <f>I7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="29"/>
       <c r="I7" s="37">
-        <f>C7-(SUM(D7:E7))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="37"/>
@@ -2163,12 +2169,12 @@
         <v>2</v>
       </c>
       <c r="F8" s="27">
-        <f>I8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="29"/>
       <c r="I8" s="37">
-        <f>C8-(SUM(D8:E8))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="37"/>
@@ -2190,12 +2196,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="27">
-        <f>I9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="29"/>
       <c r="I9" s="37">
-        <f>C9-(SUM(D9:E9))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="37"/>
@@ -2217,12 +2223,12 @@
         <v>2</v>
       </c>
       <c r="F10" s="27">
-        <f>I10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="29"/>
       <c r="I10" s="38">
-        <f>C10-(SUM(D10:E10))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="29"/>
@@ -2257,11 +2263,11 @@
       </c>
       <c r="D12" s="26">
         <f>C12-(SUM(D5:D9))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="19">
         <f>D12-(SUM(E5:E9))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="27">
         <f>E12-(SUM(F5:F9))</f>
@@ -2623,12 +2629,16 @@
         <v>49</v>
       </c>
       <c r="B68" s="39"/>
-      <c r="C68" s="49"/>
+      <c r="C68" s="49" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="51"/>
       <c r="B69" s="52"/>
-      <c r="C69" s="53"/>
+      <c r="C69" s="53" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
